--- a/STAGING_TestCases_V0.1.xlsx
+++ b/STAGING_TestCases_V0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ETL Class\ETL Project\Test Cases(STP)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\git practice 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CECBF34-7780-466D-B39D-B7B23CB6BB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D296F5-1615-46FF-A8F5-5363A6DA45AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1A6F7DD1-0825-4113-97FA-6BD3F3795B80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A6F7DD1-0825-4113-97FA-6BD3F3795B80}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGING" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Test Name </t>
   </si>
@@ -215,6 +208,15 @@
   </si>
   <si>
     <t>STG_Order3 count should be be same as source.</t>
+  </si>
+  <si>
+    <t>pankaj</t>
+  </si>
+  <si>
+    <t>patil</t>
+  </si>
+  <si>
+    <t>kalambi</t>
   </si>
 </sst>
 </file>
@@ -271,12 +273,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,21 +598,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97823794-22EF-4C97-8866-F0A5EE5EE52D}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.81640625" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -641,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -658,7 +663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -675,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -692,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -709,7 +714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -726,7 +731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -743,7 +748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -760,7 +765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -777,7 +782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -794,7 +799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -811,7 +816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -826,6 +831,23 @@
       </c>
       <c r="E13" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5455</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>9146793345</v>
       </c>
     </row>
   </sheetData>
